--- a/biology/Zoologie/Hypomasticus/Hypomasticus.xlsx
+++ b/biology/Zoologie/Hypomasticus/Hypomasticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypomasticus est un genre de poissons d'eau douce de la famille des Anostomidae (ordre des Characiformes).  
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (7 juillet 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (7 juillet 2023) :
 Hypomasticus copelandii (Steindachner, 1875)
 Hypomasticus despaxi (Puyo, 1943)
 Hypomasticus julii (Santos, Jégu &amp; Lima, 1996)
@@ -551,9 +565,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hypomasticus Borodin (d), 1929[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hypomasticus Borodin (d), 1929,.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Hypomasticus, qui dérive du grec ancien ὑπό, hupó, « au-dessous », et μαστάζω, mastázô, « mâcher », fait référence à la partie inférieure de la bouche de Hypomasticus mormyrops[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Hypomasticus, qui dérive du grec ancien ὑπό, hupó, « au-dessous », et μαστάζω, mastázô, « mâcher », fait référence à la partie inférieure de la bouche de Hypomasticus mormyrops.
 </t>
         </is>
       </c>
@@ -614,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
